--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -1,26 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\projects\english_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11CDD34-511C-40AE-B39C-4F86267DD38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD99AD8F-D3EB-45B4-A2D7-183F8BE867A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12645" yWindow="-105" windowWidth="16155" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -125,6 +161,10 @@
   </si>
   <si>
     <t>김영석</t>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -502,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1738,4 +1778,234 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2249F4CE-DA4E-400F-AA1C-A8BAEFC62B43}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:A24">_xlfn.UNIQUE(raw!B:B)</f>
+        <v>name</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <v>상훈</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(raw!B:B,summary!A2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <v>미주</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(raw!B:B,summary!A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>이유정</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(raw!B:B,summary!A4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>김광우</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(raw!B:B,summary!A5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <v>김재민</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIF(raw!B:B,summary!A6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <v>진미연</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIF(raw!B:B,summary!A7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <v>최지연</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF(raw!B:B,summary!A8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v>장현오</v>
+      </c>
+      <c r="B9">
+        <f>COUNTIF(raw!B:B,summary!A9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v>천지현</v>
+      </c>
+      <c r="B10">
+        <f>COUNTIF(raw!B:B,summary!A10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v>오현진</v>
+      </c>
+      <c r="B11">
+        <f>COUNTIF(raw!B:B,summary!A11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>조혜연</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIF(raw!B:B,summary!A12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>김승기</v>
+      </c>
+      <c r="B13">
+        <f>COUNTIF(raw!B:B,summary!A13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>김준희</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF(raw!B:B,summary!A14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v>류진향</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF(raw!B:B,summary!A15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v>정고을</v>
+      </c>
+      <c r="B16">
+        <f>COUNTIF(raw!B:B,summary!A16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v>이재필</v>
+      </c>
+      <c r="B17">
+        <f>COUNTIF(raw!B:B,summary!A17)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v>이가진</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIF(raw!B:B,summary!A18)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>서경덕</v>
+      </c>
+      <c r="B19">
+        <f>COUNTIF(raw!B:B,summary!A19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>지동호</v>
+      </c>
+      <c r="B20">
+        <f>COUNTIF(raw!B:B,summary!A20)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>예빈</v>
+      </c>
+      <c r="B21">
+        <f>COUNTIF(raw!B:B,summary!A21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>이다훈</v>
+      </c>
+      <c r="B22">
+        <f>COUNTIF(raw!B:B,summary!A22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <v>김영석</v>
+      </c>
+      <c r="B23">
+        <f>COUNTIF(raw!B:B,summary!A23)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f>COUNTIF(raw!B:B,summary!A24)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>